--- a/אופטיקה/אקסל אופטיקה חלק ב.xlsx
+++ b/אופטיקה/אקסל אופטיקה חלק ב.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\מעבדה 2 א\laba\אופטיקה\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8FD06F-0E3A-47AB-B112-BE852DB3B284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC33B11-920F-49A7-80B3-BE382A2FFDA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7B94E6EB-0170-45A4-B2F1-63BCFD3C8F6E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{7B94E6EB-0170-45A4-B2F1-63BCFD3C8F6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="נורה 1 כחולה (2)" sheetId="4" r:id="rId2"/>
     <sheet name="נורה 1 כחולה" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
-    <sheet name=" נורה אדומה" sheetId="5" r:id="rId5"/>
+    <sheet name=" נורה אדומה" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="43">
   <si>
     <t>L=17 CM</t>
   </si>
@@ -87,18 +86,6 @@
     <t>סגול</t>
   </si>
   <si>
-    <t>dtheta</t>
-  </si>
-  <si>
-    <t>sin(theta)</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>dn</t>
-  </si>
-  <si>
     <t>סגול כחול</t>
   </si>
   <si>
@@ -151,6 +138,36 @@
   </si>
   <si>
     <t>sin(θ)</t>
+  </si>
+  <si>
+    <t>dθ</t>
+  </si>
+  <si>
+    <t>dx</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>ds</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>dsin(θ)</t>
+  </si>
+  <si>
+    <t>λ</t>
+  </si>
+  <si>
+    <t>dλ</t>
+  </si>
+  <si>
+    <t>dλ/λ</t>
+  </si>
+  <si>
+    <t>dx_spread</t>
   </si>
 </sst>
 </file>
@@ -192,9 +209,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,7 +529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A406F7-99AB-4993-AF5A-03797C5F84FA}">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
@@ -584,7 +602,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -595,7 +613,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="P11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="R11">
         <v>38.6</v>
@@ -674,7 +692,7 @@
         <v>13</v>
       </c>
       <c r="S15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -685,7 +703,7 @@
         <v>8.4</v>
       </c>
       <c r="G16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="P16">
         <v>12.8</v>
@@ -694,7 +712,7 @@
         <v>30</v>
       </c>
       <c r="S16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="4:19" x14ac:dyDescent="0.3">
@@ -705,7 +723,7 @@
         <v>12.2</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P17">
         <v>5.2</v>
@@ -714,7 +732,7 @@
         <v>12.2</v>
       </c>
       <c r="S17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="4:19" x14ac:dyDescent="0.3">
@@ -725,7 +743,7 @@
         <v>12.4</v>
       </c>
       <c r="G18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="P18">
         <v>5.4</v>
@@ -734,7 +752,7 @@
         <v>12.4</v>
       </c>
       <c r="S18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="4:19" x14ac:dyDescent="0.3">
@@ -742,18 +760,18 @@
         <v>6.4</v>
       </c>
       <c r="G19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="P19">
         <v>6.4</v>
       </c>
       <c r="S19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="4:19" x14ac:dyDescent="0.3">
       <c r="H25" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I25">
         <v>11.4</v>
@@ -761,7 +779,7 @@
     </row>
     <row r="26" spans="4:19" x14ac:dyDescent="0.3">
       <c r="H26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I26">
         <v>8.5</v>
@@ -769,7 +787,7 @@
     </row>
     <row r="27" spans="4:19" x14ac:dyDescent="0.3">
       <c r="H27" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I27">
         <v>7</v>
@@ -777,18 +795,18 @@
     </row>
     <row r="29" spans="4:19" x14ac:dyDescent="0.3">
       <c r="F29" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G29">
         <v>1.3</v>
       </c>
       <c r="H29" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="4:19" x14ac:dyDescent="0.3">
       <c r="H30" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="4:19" x14ac:dyDescent="0.3">
@@ -796,15 +814,15 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="4:19" x14ac:dyDescent="0.3">
       <c r="G32" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H32" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -839,16 +857,16 @@
         <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -888,14 +906,14 @@
         <v>8.4</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G6" si="0">ATAN((C3+0.35)/17)</f>
+        <f t="shared" ref="G3:G5" si="0">ATAN((C3+0.35)/17)</f>
         <v>0.47534298216649501</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H6" si="1">SIN(G3)</f>
+        <f t="shared" ref="H3:H5" si="1">SIN(G3)</f>
         <v>0.45764343181737815</v>
       </c>
       <c r="I3">
@@ -911,7 +929,7 @@
         <v>12.2</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
@@ -934,7 +952,7 @@
         <v>12.4</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
@@ -956,159 +974,577 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69A275F-7187-45B4-8EE5-AE254A7C5351}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection sqref="A1:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
       </c>
       <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>3.5</v>
+      </c>
+      <c r="B2">
+        <f>0.1/SQRT(12)</f>
+        <v>2.8867513459481291E-2</v>
+      </c>
+      <c r="C2">
+        <f>A2+0.35</f>
+        <v>3.85</v>
+      </c>
+      <c r="D2">
+        <f>SQRT(B2^2+((10^-4)/SQRT(12))^2+E2^2)</f>
+        <v>6.4549728891762206E-2</v>
+      </c>
+      <c r="E2">
+        <f>0.2/SQRT(12)</f>
+        <v>5.7735026918962581E-2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <f>ATAN((A2+0.35)/17)</f>
+        <v>0.22271372779847809</v>
+      </c>
+      <c r="I2">
+        <f>SQRT((D2/17)^2+((C2/17^2)*B2)^2)/(COS(C2/17)^2)</f>
+        <v>4.0191031562263127E-3</v>
+      </c>
+      <c r="J2">
+        <f>SIN(H2)</f>
+        <v>0.22087713631133166</v>
+      </c>
+      <c r="K2">
+        <f>COS(H2)*I2</f>
+        <v>3.9198379030339599E-3</v>
+      </c>
+      <c r="L2">
+        <f>J2*(1/(570*1000))*10^9</f>
+        <v>387.50374791461695</v>
+      </c>
+      <c r="M2">
+        <f>(10^9)*K2/(570*1000)</f>
+        <v>6.8769086018139642</v>
+      </c>
+      <c r="N2">
+        <f>100*M2/L2</f>
+        <v>1.7746689261259043</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B6" si="0">0.1/SQRT(12)</f>
+        <v>2.8867513459481291E-2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C6" si="1">A3+0.35</f>
+        <v>4.4499999999999993</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D6" si="2">SQRT(B3^2+((10^-4)/SQRT(12))^2+E3^2)</f>
+        <v>6.4549728891762206E-2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E6" si="3">0.2/SQRT(12)</f>
+        <v>5.7735026918962581E-2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H6" si="4">ATAN((A3+0.35)/17)</f>
+        <v>0.25602031237826828</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I6" si="5">SQRT((D3/17)^2+((C3/17^2)*B3)^2)/(COS(C3/17)^2)</f>
+        <v>4.0973728546350738E-3</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J6" si="6">SIN(H3)</f>
+        <v>0.25323259600322462</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K6" si="7">COS(H3)*I3</f>
+        <v>3.9638207193551708E-3</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L6" si="8">J3*(1/(570*1000))*10^9</f>
+        <v>444.26771228635897</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M6" si="9">(10^9)*K3/(570*1000)</f>
+        <v>6.9540714374652115</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N6" si="10">100*M3/L3</f>
+        <v>1.5652885062650843</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>5.2</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481291E-2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>5.55</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>6.4549728891762206E-2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="3"/>
+        <v>5.7735026918962581E-2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="4"/>
+        <v>0.31556142033779971</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="5"/>
+        <v>4.2772096682255354E-3</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="6"/>
+        <v>0.31035021879783148</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="7"/>
+        <v>4.0660108573740391E-3</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="8"/>
+        <v>544.47406806637105</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="9"/>
+        <v>7.1333523813579633</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="10"/>
+        <v>1.3101362947717856</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5.4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481291E-2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>5.75</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>6.4549728891762206E-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>5.7735026918962581E-2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="4"/>
+        <v>0.32615581224345308</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="5"/>
+        <v>4.3153885714864292E-3</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="6"/>
+        <v>0.32040387864264824</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="7"/>
+        <v>4.0878857416739049E-3</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="8"/>
+        <v>562.11206779411975</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="9"/>
+        <v>7.1717293713577277</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="10"/>
+        <v>1.2758540124394659</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6.4</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481291E-2</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>6.75</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>6.4549728891762206E-2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>5.7735026918962581E-2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="4"/>
+        <v>0.37796831149627336</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="5"/>
+        <v>4.534550223847706E-3</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="6"/>
+        <v>0.36903294791234026</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="7"/>
+        <v>4.2144849513440566E-3</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="8"/>
+        <v>647.42622440761443</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="9"/>
+        <v>7.3938332479720295</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="10"/>
+        <v>1.1420348711912742</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B11" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3.5</v>
-      </c>
-      <c r="C2">
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>7.8</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B12">
+        <f>0.1/SQRT(12)</f>
+        <v>2.8867513459481291E-2</v>
+      </c>
+      <c r="C12">
+        <f>A12+0.35</f>
+        <v>8.15</v>
+      </c>
+      <c r="D12">
+        <f>SQRT(B12^2+((10^-4)/SQRT(12))^2+E12^2)</f>
+        <v>6.4549728891762206E-2</v>
+      </c>
+      <c r="E12">
+        <f>0.2/SQRT(12)</f>
+        <v>5.7735026918962581E-2</v>
+      </c>
+      <c r="F12" t="s">
         <v>14</v>
       </c>
-      <c r="G2">
-        <f>ATAN((B2+0.35)/17)</f>
-        <v>0.22271372779847809</v>
-      </c>
-      <c r="H2">
-        <f>SIN(G2)</f>
-        <v>0.22087713631133166</v>
-      </c>
-      <c r="I2">
-        <f>H2*(1/(570*1000))*10^9</f>
-        <v>387.50374791461695</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C3">
+      <c r="H12">
+        <f>ATAN((A12+0.35)/17)</f>
+        <v>0.44704178085544038</v>
+      </c>
+      <c r="I12">
+        <f>SQRT((D12/17)^2+((C12/17^2)*B12)^2)/(COS(C12/17)^2)</f>
+        <v>4.9328333356078247E-3</v>
+      </c>
+      <c r="J12">
+        <f>SIN(H12)</f>
+        <v>0.43229991493598202</v>
+      </c>
+      <c r="K12">
+        <f>COS(H12)*I12</f>
+        <v>4.4480832310923755E-3</v>
+      </c>
+      <c r="L12">
+        <f>J12*(1/(2*570*1000))*10^9</f>
+        <v>379.21045169822986</v>
+      </c>
+      <c r="M12">
+        <f>(10^9)*K12/(2*570*1000)</f>
+        <v>3.9018273956950664</v>
+      </c>
+      <c r="N12">
+        <f>100*M12/L12</f>
+        <v>1.028934560801632</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>8.4</v>
       </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G6" si="0">ATAN((B3+0.35)/17)</f>
-        <v>0.25602031237826828</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H6" si="1">SIN(G3)</f>
-        <v>0.25323259600322462</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I6" si="2">H3*(1/(570*1000))*10^9</f>
-        <v>444.26771228635897</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <v>5.2</v>
-      </c>
-      <c r="C4">
+      <c r="B13">
+        <f t="shared" ref="B13:B15" si="11">0.1/SQRT(12)</f>
+        <v>2.8867513459481291E-2</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:C15" si="12">A13+0.35</f>
+        <v>8.75</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:D15" si="13">SQRT(B13^2+((10^-4)/SQRT(12))^2+E13^2)</f>
+        <v>6.4549728891762206E-2</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13:E15" si="14">0.2/SQRT(12)</f>
+        <v>5.7735026918962581E-2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13">
+        <f>ATAN((A13+0.35)/17)</f>
+        <v>0.47534298216649501</v>
+      </c>
+      <c r="I13">
+        <f>SQRT((D13/17)^2+((C13/17^2)*B13)^2)/(COS(C13/17)^2)</f>
+        <v>5.1425821726590994E-3</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ref="J13:J15" si="15">SIN(H13)</f>
+        <v>0.45764343181737815</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="K13:K15" si="16">COS(H13)*I13</f>
+        <v>4.5724539675743824E-3</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ref="L13:L15" si="17">J13*(1/(2*570*1000))*10^9</f>
+        <v>401.44160685734926</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ref="M13:M15" si="18">(10^9)*K13/(2*570*1000)</f>
+        <v>4.0109245329599847</v>
+      </c>
+      <c r="N13">
+        <f t="shared" ref="N13:N15" si="19">100*M13/L13</f>
+        <v>0.99913025068805383</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>12.2</v>
       </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>0.31556142033779971</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="1"/>
-        <v>0.31035021879783148</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="2"/>
-        <v>544.47406806637105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>5.4</v>
-      </c>
-      <c r="C5">
+      <c r="B14">
+        <f t="shared" si="11"/>
+        <v>2.8867513459481291E-2</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="12"/>
+        <v>12.549999999999999</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="13"/>
+        <v>6.4549728891762206E-2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="14"/>
+        <v>5.7735026918962581E-2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14">
+        <f>ATAN((A14+0.35)/17)</f>
+        <v>0.63592908124526815</v>
+      </c>
+      <c r="I14">
+        <f>SQRT((D14/17)^2+((C14/17^2)*B14)^2)/(COS(C14/17)^2)</f>
+        <v>7.3088626830383379E-3</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="15"/>
+        <v>0.59392523524948238</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="16"/>
+        <v>5.8801279524545846E-3</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="17"/>
+        <v>520.98704846445821</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="18"/>
+        <v>5.1580069758373552</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="19"/>
+        <v>0.99004514431595037</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>12.4</v>
       </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>0.32615581224345308</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
-        <v>0.32040387864264824</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="2"/>
-        <v>562.11206779411975</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>6.4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>0.37796831149627336</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
-        <v>0.36903294791234026</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="2"/>
-        <v>647.42622440761443</v>
+      <c r="B15">
+        <f t="shared" si="11"/>
+        <v>2.8867513459481291E-2</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="12"/>
+        <v>12.75</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="13"/>
+        <v>6.4549728891762206E-2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="14"/>
+        <v>5.7735026918962581E-2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15">
+        <f>ATAN((A15+0.35)/17)</f>
+        <v>0.64350110879328437</v>
+      </c>
+      <c r="I15">
+        <f>SQRT((D15/17)^2+((C15/17^2)*B15)^2)/(COS(C15/17)^2)</f>
+        <v>7.4807064032905556E-3</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="15"/>
+        <v>0.6</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="16"/>
+        <v>5.9845651226324448E-3</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="17"/>
+        <v>526.31578947368416</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="18"/>
+        <v>5.2496185286249517</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="19"/>
+        <v>0.99742752043874106</v>
       </c>
     </row>
   </sheetData>
@@ -1117,261 +1553,410 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D01489-BD7C-47EB-A9AF-FE5E0184824D}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD11E58C-F276-49EC-A9C0-7735BFDEC8B6}">
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD11E58C-F276-49EC-A9C0-7735BFDEC8B6}">
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'נורה 1 כחולה'!A1</f>
-        <v>x_0</v>
+        <v>s</v>
       </c>
       <c r="B1" t="str">
-        <f>'נורה 1 כחולה'!B1</f>
-        <v>x_1 ימין</v>
+        <f>'נורה 1 כחולה'!C1</f>
+        <v>x</v>
       </c>
       <c r="C1" t="str">
-        <f>'נורה 1 כחולה'!C1</f>
-        <v>x_2 ימין</v>
-      </c>
-      <c r="D1">
-        <f>'נורה 1 כחולה'!D1</f>
+        <f>'נורה 1 כחולה'!F1</f>
+        <v>של 0.1</v>
+      </c>
+      <c r="D1" t="str">
+        <f>'נורה 1 כחולה'!G1</f>
+        <v>L=17</v>
+      </c>
+      <c r="E1" t="str">
+        <f>'נורה 1 כחולה'!H1</f>
+        <v>θ</v>
+      </c>
+      <c r="F1" t="str">
+        <f>'נורה 1 כחולה'!J1</f>
+        <v>sin(θ)</v>
+      </c>
+      <c r="G1" t="str">
+        <f>'נורה 1 כחולה'!L1</f>
+        <v>λ</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>7.8</v>
+      </c>
+      <c r="B2">
+        <f>A2+0.35</f>
+        <v>8.15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <f>'נורה 1 כחולה'!G2</f>
         <v>0</v>
       </c>
-      <c r="E1" t="str">
-        <f>'נורה 1 כחולה'!E1</f>
-        <v>של 0.1</v>
-      </c>
-      <c r="F1" t="str">
-        <f>'נורה 1 כחולה'!F1</f>
-        <v>L=17</v>
-      </c>
-      <c r="G1" t="str">
-        <f>'נורה 1 כחולה'!G1</f>
-        <v>θ</v>
-      </c>
-      <c r="H1" t="str">
-        <f>'נורה 1 כחולה'!H1</f>
-        <v>sin(θ)</v>
-      </c>
-      <c r="I1" t="str">
-        <f>'נורה 1 כחולה'!I1</f>
-        <v>אורך הגל</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <f>'נורה 1 כחולה'!A2</f>
+      <c r="E2">
+        <f>ATAN(B2/17)</f>
+        <v>0.44704178085544038</v>
+      </c>
+      <c r="F2">
+        <f>SIN(E2)</f>
+        <v>0.43229991493598202</v>
+      </c>
+      <c r="G2">
+        <f>F2*(1/(570*1000))*10^9</f>
+        <v>758.42090339645972</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>5.2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B5" si="0">A3+0.35</f>
+        <v>5.55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <f>'נורה 1 כחולה'!G4</f>
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="E3">
+        <f t="shared" ref="E3:E5" si="1">ATAN(B3/17)</f>
+        <v>0.31556142033779971</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F5" si="2">SIN(E3)</f>
+        <v>0.31035021879783148</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G5" si="3">F3*(1/(570*1000))*10^9</f>
+        <v>544.47406806637105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>5.4</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>5.75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <f>'נורה 1 כחולה'!G5</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>0.32615581224345308</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>0.32040387864264824</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="3"/>
+        <v>562.11206779411975</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>6.4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>6.75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <f>'נורה 1 כחולה'!G6</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0.37796831149627336</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>0.36903294791234026</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>647.42622440761443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>7.8</v>
       </c>
-      <c r="C2">
-        <v>11.8</v>
-      </c>
-      <c r="D2" t="str">
-        <f>'נורה 1 כחולה'!D2</f>
-        <v>גל ראשון</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2">
-        <f>'נורה 1 כחולה'!F2</f>
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <f>ATAN((B2+0.35)/17)</f>
+      <c r="B9">
+        <f>0.1/SQRT(12)</f>
+        <v>2.8867513459481291E-2</v>
+      </c>
+      <c r="C9">
+        <f>A9+0.35</f>
+        <v>8.15</v>
+      </c>
+      <c r="D9">
+        <f>SQRT(B9^2+((10^-4)/SQRT(12))^2+E9^2)</f>
+        <v>6.4549728891762206E-2</v>
+      </c>
+      <c r="E9">
+        <f>0.2/SQRT(12)</f>
+        <v>5.7735026918962581E-2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <f>ATAN((A9+0.35)/17)</f>
         <v>0.44704178085544038</v>
       </c>
-      <c r="H2">
-        <f>SIN(G2)</f>
+      <c r="I9">
+        <f>SQRT((D9/17)^2+((C9/17^2)*B9)^2)/(COS(C9/17)^2)</f>
+        <v>4.9328333356078247E-3</v>
+      </c>
+      <c r="J9">
+        <f>SIN(H9)</f>
         <v>0.43229991493598202</v>
       </c>
-      <c r="I2">
-        <f>H2*(1/(570*1000))*10^9</f>
+      <c r="K9">
+        <f>COS(H9)*I9</f>
+        <v>4.4480832310923755E-3</v>
+      </c>
+      <c r="L9">
+        <f>J9*(1/(570*1000))*10^9</f>
         <v>758.42090339645972</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <f>'נורה 1 כחולה'!A3</f>
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>8.4</v>
-      </c>
-      <c r="C3">
-        <v>12.8</v>
-      </c>
-      <c r="D3">
-        <f>'נורה 1 כחולה'!D3</f>
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3">
-        <f>'נורה 1 כחולה'!F3</f>
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G6" si="0">ATAN((B3+0.35)/17)</f>
-        <v>0.47534298216649501</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H6" si="1">SIN(G3)</f>
-        <v>0.45764343181737815</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I6" si="2">H3*(1/(570*1000))*10^9</f>
-        <v>802.88321371469851</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <f>'נורה 1 כחולה'!A4</f>
-        <v>0</v>
-      </c>
-      <c r="B4">
+      <c r="M9">
+        <f>(10^9)*K9/(570*1000)</f>
+        <v>7.8036547913901328</v>
+      </c>
+      <c r="N9">
+        <f>100*M9/L9</f>
+        <v>1.028934560801632</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>5.2</v>
       </c>
-      <c r="C4">
-        <f>'נורה 1 כחולה'!C4</f>
-        <v>12.2</v>
-      </c>
-      <c r="D4">
-        <f>'נורה 1 כחולה'!D4</f>
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4">
-        <f>'נורה 1 כחולה'!F4</f>
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
+      <c r="B10">
+        <f t="shared" ref="B10:B12" si="4">0.1/SQRT(12)</f>
+        <v>2.8867513459481291E-2</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:C12" si="5">A10+0.35</f>
+        <v>5.55</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:D12" si="6">SQRT(B10^2+((10^-4)/SQRT(12))^2+E10^2)</f>
+        <v>6.4549728891762206E-2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="E10:E12" si="7">0.2/SQRT(12)</f>
+        <v>5.7735026918962581E-2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ref="H10:H12" si="8">ATAN((A10+0.35)/17)</f>
         <v>0.31556142033779971</v>
       </c>
-      <c r="H4">
-        <f t="shared" si="1"/>
+      <c r="I10">
+        <f t="shared" ref="I10:I12" si="9">SQRT((D10/17)^2+((C10/17^2)*B10)^2)/(COS(C10/17)^2)</f>
+        <v>4.2772096682255354E-3</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ref="J10:J12" si="10">SIN(H10)</f>
         <v>0.31035021879783148</v>
       </c>
-      <c r="I4">
-        <f t="shared" si="2"/>
+      <c r="K10">
+        <f t="shared" ref="K10:K12" si="11">COS(H10)*I10</f>
+        <v>4.0660108573740391E-3</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ref="L10:L12" si="12">J10*(1/(570*1000))*10^9</f>
         <v>544.47406806637105</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <f>'נורה 1 כחולה'!A5</f>
-        <v>0</v>
-      </c>
-      <c r="B5">
+      <c r="M10">
+        <f t="shared" ref="M10:M12" si="13">(10^9)*K10/(570*1000)</f>
+        <v>7.1333523813579633</v>
+      </c>
+      <c r="N10">
+        <f t="shared" ref="N10:N12" si="14">100*M10/L10</f>
+        <v>1.3101362947717856</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>5.4</v>
       </c>
-      <c r="C5">
-        <f>'נורה 1 כחולה'!C5</f>
-        <v>12.4</v>
-      </c>
-      <c r="D5">
-        <f>'נורה 1 כחולה'!D5</f>
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5">
-        <f>'נורה 1 כחולה'!F5</f>
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
+      <c r="B11">
+        <f t="shared" si="4"/>
+        <v>2.8867513459481291E-2</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="5"/>
+        <v>5.75</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="6"/>
+        <v>6.4549728891762206E-2</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="7"/>
+        <v>5.7735026918962581E-2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="8"/>
         <v>0.32615581224345308</v>
       </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
+      <c r="I11">
+        <f t="shared" si="9"/>
+        <v>4.3153885714864292E-3</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="10"/>
         <v>0.32040387864264824</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="2"/>
+      <c r="K11">
+        <f t="shared" si="11"/>
+        <v>4.0878857416739049E-3</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="12"/>
         <v>562.11206779411975</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <f>'נורה 1 כחולה'!A6</f>
-        <v>0</v>
-      </c>
-      <c r="B6">
+      <c r="M11">
+        <f t="shared" si="13"/>
+        <v>7.1717293713577277</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="14"/>
+        <v>1.2758540124394659</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>6.4</v>
       </c>
-      <c r="C6">
-        <f>'נורה 1 כחולה'!C6</f>
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <f>'נורה 1 כחולה'!D6</f>
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6">
-        <f>'נורה 1 כחולה'!F6</f>
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
+      <c r="B12">
+        <f t="shared" si="4"/>
+        <v>2.8867513459481291E-2</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="5"/>
+        <v>6.75</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="6"/>
+        <v>6.4549728891762206E-2</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="7"/>
+        <v>5.7735026918962581E-2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="8"/>
         <v>0.37796831149627336</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
+      <c r="I12">
+        <f t="shared" si="9"/>
+        <v>4.534550223847706E-3</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="10"/>
         <v>0.36903294791234026</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="2"/>
+      <c r="K12">
+        <f t="shared" si="11"/>
+        <v>4.2144849513440566E-3</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="12"/>
         <v>647.42622440761443</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="13"/>
+        <v>7.3938332479720295</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="14"/>
+        <v>1.1420348711912742</v>
       </c>
     </row>
   </sheetData>
